--- a/Тест/2019_05_21/Test_1905-14,21_Тренажер.xlsx
+++ b/Тест/2019_05_21/Test_1905-14,21_Тренажер.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="75">
   <si>
     <t>Овчинникова Анастасия Владимировна</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Отрицательное число - конфликт уже прошел</t>
+  </si>
+  <si>
+    <t>Поздно</t>
   </si>
 </sst>
 </file>
@@ -519,17 +522,17 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -837,7 +840,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,13 +969,13 @@
       <c r="H4" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="29">
+        <f>'01'!L3</f>
+        <v>-53</v>
+      </c>
+      <c r="J4" s="27">
         <f>'01'!L2</f>
-        <v>39</v>
-      </c>
-      <c r="J4" s="27">
-        <f>'01'!L3</f>
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="K4" s="27">
         <f>'01'!L4</f>
@@ -1007,12 +1010,12 @@
         <v>67</v>
       </c>
       <c r="I5" s="27">
+        <f>'02'!L3</f>
+        <v>32</v>
+      </c>
+      <c r="J5" s="27">
         <f>'02'!L2</f>
-        <v>192</v>
-      </c>
-      <c r="J5" s="27">
-        <f>'02'!L3</f>
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="K5" s="27">
         <f>'02'!L4</f>
@@ -1046,13 +1049,13 @@
       <c r="H6" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="29">
+        <f>'03'!L3</f>
+        <v>-20</v>
+      </c>
+      <c r="J6" s="27">
         <f>'03'!L2</f>
-        <v>26</v>
-      </c>
-      <c r="J6" s="27">
-        <f>'03'!L3</f>
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="K6" s="27">
         <f>'03'!L4</f>
@@ -1085,12 +1088,12 @@
       <c r="H7" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="27">
+        <f>'04'!L3</f>
+        <v>189</v>
+      </c>
+      <c r="J7" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="J7" s="27">
-        <f>'04'!L3</f>
-        <v>258</v>
       </c>
       <c r="K7" s="27">
         <f>'04'!L4</f>
@@ -1125,12 +1128,12 @@
         <v>67</v>
       </c>
       <c r="I8" s="27">
+        <f>'05'!L3</f>
+        <v>40</v>
+      </c>
+      <c r="J8" s="27">
         <f>'05'!L2</f>
-        <v>128</v>
-      </c>
-      <c r="J8" s="27">
-        <f>'05'!L3</f>
-        <v>109</v>
+        <v>197</v>
       </c>
       <c r="K8" s="27">
         <f>'05'!L4</f>
@@ -1165,12 +1168,12 @@
         <v>67</v>
       </c>
       <c r="I9" s="29">
+        <f>'06'!L3</f>
+        <v>18</v>
+      </c>
+      <c r="J9" s="30">
         <f>'06'!L2</f>
-        <v>21</v>
-      </c>
-      <c r="J9" s="30">
-        <f>'06'!L3</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K9" s="30">
         <f>'06'!L4</f>
@@ -1191,7 +1194,7 @@
       <c r="P9" s="24"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="35">
+      <c r="B10" s="33">
         <v>7</v>
       </c>
       <c r="C10" s="24"/>
@@ -1203,12 +1206,12 @@
         <v>67</v>
       </c>
       <c r="I10" s="27">
+        <f>'07'!L3</f>
+        <v>27</v>
+      </c>
+      <c r="J10" s="27">
         <f>'07'!L2</f>
-        <v>170</v>
-      </c>
-      <c r="J10" s="27">
-        <f>'07'!L3</f>
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="K10" s="27">
         <f>'07'!L4</f>
@@ -1232,7 +1235,7 @@
       <c r="P10" s="24"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="35">
+      <c r="B11" s="33">
         <v>8</v>
       </c>
       <c r="C11" s="24"/>
@@ -1244,20 +1247,20 @@
         <v>67</v>
       </c>
       <c r="I11" s="27">
+        <f>'08'!L3</f>
+        <v>36</v>
+      </c>
+      <c r="J11" s="27">
         <f>'08'!L2</f>
-        <v>71</v>
-      </c>
-      <c r="J11" s="27">
-        <f>'08'!L3</f>
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="K11" s="27">
+        <f>'08'!L5</f>
+        <v>100</v>
+      </c>
+      <c r="L11" s="30">
         <f>'08'!L4</f>
-        <v>211</v>
-      </c>
-      <c r="L11" s="29">
-        <f>'08'!L5</f>
-        <v>-6</v>
+        <v>106</v>
       </c>
       <c r="M11" s="27">
         <f>'08'!L6</f>
@@ -1271,7 +1274,7 @@
       <c r="P11" s="24"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="35">
+      <c r="B12" s="33">
         <v>9</v>
       </c>
       <c r="C12" s="24"/>
@@ -1282,13 +1285,13 @@
       <c r="H12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="29">
+        <f>'09'!L3</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="27">
         <f>'09'!L2</f>
-        <v>65</v>
-      </c>
-      <c r="J12" s="27">
-        <f>'09'!L3</f>
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="K12" s="27">
         <f>'09'!L4</f>
@@ -1310,7 +1313,7 @@
       <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="35">
+      <c r="B13" s="33">
         <v>10</v>
       </c>
       <c r="C13" s="24"/>
@@ -1322,12 +1325,12 @@
         <v>67</v>
       </c>
       <c r="I13" s="27">
+        <f>'10'!L3</f>
+        <v>39</v>
+      </c>
+      <c r="J13" s="27">
         <f>'10'!L2</f>
-        <v>218</v>
-      </c>
-      <c r="J13" s="27">
-        <f>'10'!L3</f>
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="K13" s="29">
         <f>'10'!L4</f>
@@ -1349,7 +1352,7 @@
       <c r="P13" s="24"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="35">
+      <c r="B14" s="33">
         <v>11</v>
       </c>
       <c r="C14" s="24"/>
@@ -1361,12 +1364,12 @@
         <v>67</v>
       </c>
       <c r="I14" s="27">
+        <f>'11'!L3</f>
+        <v>30</v>
+      </c>
+      <c r="J14" s="27">
         <f>'11'!L2</f>
-        <v>200</v>
-      </c>
-      <c r="J14" s="27">
-        <f>'11'!L3</f>
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="K14" s="27">
         <f>'11'!L4</f>
@@ -1390,7 +1393,7 @@
       <c r="P14" s="24"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="35">
+      <c r="B15" s="33">
         <v>12</v>
       </c>
       <c r="C15" s="24"/>
@@ -1402,12 +1405,12 @@
         <v>67</v>
       </c>
       <c r="I15" s="27">
+        <f>'12'!L3</f>
+        <v>35</v>
+      </c>
+      <c r="J15" s="27">
         <f>'12'!L2</f>
-        <v>241</v>
-      </c>
-      <c r="J15" s="27">
-        <f>'12'!L3</f>
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="K15" s="27">
         <f>'12'!L4</f>
@@ -1786,7 +1789,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,34 +1844,34 @@
         <v>2.5694444444444445E-3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <f>B2-B1</f>
         <v>2.5231481481481481E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <f>D2</f>
         <v>2.5231481481481481E-3</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f>I2-H2</f>
-        <v>8.2175925925925906E-4</v>
+        <v>1.6203703703703705E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L7" si="0">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
@@ -1881,34 +1884,34 @@
         <v>2.9745370370370373E-3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <f>B3-B1</f>
         <v>2.9282407407407408E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="1">D3</f>
         <v>2.9282407407407408E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
         <f>I3-H3</f>
-        <v>1.2152777777777778E-3</v>
+        <v>4.1666666666666631E-4</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M7" si="2">IF((I3-J3)&lt;K3,"","Поздно")</f>
@@ -1920,34 +1923,34 @@
         <v>5.8101851851851856E-3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <f>B4-B1</f>
         <v>5.7638888888888896E-3</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="1"/>
         <v>5.7638888888888896E-3</v>
       </c>
       <c r="I4" s="2">
-        <f>time!F5</f>
-        <v>8.2118055555555555E-3</v>
+        <f>time!F6</f>
+        <v>6.9907407407407409E-3</v>
       </c>
       <c r="J4" s="2">
-        <f>time!G5</f>
-        <v>7.0775462962962962E-3</v>
+        <f>time!G6</f>
+        <v>6.7592592592592591E-3</v>
       </c>
       <c r="K4" s="2">
         <f>I4-H4</f>
-        <v>2.4479166666666659E-3</v>
+        <v>1.2268518518518514E-3</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="2"/>
@@ -1959,38 +1962,38 @@
         <v>7.106481481481481E-3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
         <f>B5-B1</f>
         <v>7.060185185185185E-3</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="1"/>
         <v>7.060185185185185E-3</v>
       </c>
       <c r="I5" s="2">
-        <f>time!F6</f>
-        <v>6.9907407407407409E-3</v>
+        <f>time!F5</f>
+        <v>8.2118055555555555E-3</v>
       </c>
       <c r="J5" s="2">
-        <f>time!G6</f>
-        <v>6.7592592592592591E-3</v>
-      </c>
-      <c r="K5" s="9">
-        <f>H5-I5</f>
-        <v>6.9444444444444024E-5</v>
-      </c>
-      <c r="L5" s="10">
-        <f>-(MINUTE(K5)*60+SECOND(K5))</f>
-        <v>-6</v>
+        <f>time!G5</f>
+        <v>7.0775462962962962E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <f>I5-H5</f>
+        <v>1.1516203703703706E-3</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="2"/>
-        <v>Поздно</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2112,7 +2115,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,34 +2170,34 @@
         <v>2.673611111111111E-3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <f>B2-B1</f>
         <v>2.5925925925925925E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" ref="H2:H7" si="0">D2</f>
         <v>2.5925925925925925E-3</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K7" si="1">I2-H2</f>
-        <v>7.523148148148146E-4</v>
+        <v>1.5509259259259261E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L7" si="2">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
@@ -2207,38 +2210,38 @@
         <v>3.3101851851851851E-3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <f>B3-B1</f>
         <v>3.2291666666666666E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>3.2291666666666666E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>9.1435185185185196E-4</v>
-      </c>
-      <c r="L3" s="7">
+        <v>1.1574074074074047E-4</v>
+      </c>
+      <c r="L3" s="10">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M7" si="3">IF((I3-J3)&lt;K3,"","Поздно")</f>
-        <v/>
+        <v>Поздно</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2438,13 +2441,15 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -2491,34 +2496,34 @@
         <v>9.3750000000000007E-4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <f>B2-B1</f>
         <v>8.2175925925925938E-4</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <f>D2</f>
         <v>8.2175925925925938E-4</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f>I2-H2</f>
-        <v>2.5231481481481476E-3</v>
+        <v>3.3217592592592591E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L7" si="0">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
@@ -2531,34 +2536,34 @@
         <v>3.0092592592592588E-3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <f>B3-B1</f>
         <v>2.8935185185185179E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="1">D3</f>
         <v>2.8935185185185179E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
         <f>I3-H3</f>
-        <v>1.2500000000000007E-3</v>
+        <v>4.5138888888888919E-4</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M7" si="2">IF((I3-J3)&lt;K3,"","Поздно")</f>
@@ -2683,7 +2688,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="37">
+      <c r="B7" s="35">
         <v>6.4699074074074069E-3</v>
       </c>
       <c r="C7">
@@ -2762,7 +2767,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2817,34 +2822,34 @@
         <v>1.1111111111111111E-3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <f>B2-B1</f>
         <v>1.0300925925925926E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" ref="H2:H7" si="0">D2</f>
         <v>1.0300925925925926E-3</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K7" si="1">I2-H2</f>
-        <v>2.3148148148148147E-3</v>
+        <v>3.1134259259259257E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L7" si="2">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
@@ -2857,34 +2862,34 @@
         <v>3.0787037037037037E-3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <f>B3-B1</f>
         <v>2.9976851851851853E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="0"/>
         <v>2.9976851851851853E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="1"/>
-        <v>1.1458333333333333E-3</v>
+        <v>3.4722222222222186E-4</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M7" si="3">IF((I3-J3)&lt;K3,"","Поздно")</f>
@@ -3009,7 +3014,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="37">
+      <c r="B7" s="35">
         <v>6.4236111111111117E-3</v>
       </c>
       <c r="C7">
@@ -3053,7 +3058,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N11" s="36">
+      <c r="N11" s="34">
         <v>1</v>
       </c>
     </row>
@@ -3088,7 +3093,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,34 +3148,34 @@
         <v>5.9027777777777778E-4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <f>B2-B1</f>
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <f>D2</f>
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K7" si="0">I2-H2</f>
-        <v>2.7893518518518515E-3</v>
+        <v>3.5879629629629629E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L7" si="1">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>241</v>
+        <v>310</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
@@ -3183,34 +3188,34 @@
         <v>2.9745370370370373E-3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <f>B3-B1</f>
         <v>2.9398148148148152E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="2">D3</f>
         <v>2.9398148148148152E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
-        <v>1.2037037037037034E-3</v>
+        <v>4.0509259259259188E-4</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M7" si="3">IF((I3-J3)&lt;K3,"","Поздно")</f>
@@ -3379,7 +3384,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N11" s="36">
+      <c r="N11" s="34">
         <v>2</v>
       </c>
     </row>
@@ -3414,7 +3419,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3427,14 +3432,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -3804,7 +3809,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3863,27 +3868,27 @@
         <v>1.4004629629629632E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <f>D5</f>
         <v>2.8935185185185192E-3</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f>I2-H2</f>
-        <v>4.5138888888888789E-4</v>
+        <v>1.2499999999999994E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L3" si="0">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
@@ -3899,31 +3904,30 @@
         <v>1.6319444444444445E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f>D6</f>
         <v>3.9583333333333337E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
-        <f>I3-H3</f>
-        <v>1.8518518518518493E-4</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M6" si="1">IF((I3-J3)&lt;K3,"","Поздно")</f>
-        <v/>
+        <f>-(I3-H3)</f>
+        <v>6.1342592592592655E-4</v>
+      </c>
+      <c r="L3" s="10">
+        <f>-(MINUTE(K3)*60+SECOND(K3))</f>
+        <v>-53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3958,7 +3962,7 @@
         <v>276</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M3:M6" si="1">IF((I4-J4)&lt;K4,"","Поздно")</f>
         <v/>
       </c>
     </row>
@@ -3967,7 +3971,7 @@
         <v>2.9282407407407412E-3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
         <f>B5-B1</f>
@@ -4006,7 +4010,7 @@
         <v>3.9930555555555561E-3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
         <f>B6-B1</f>
@@ -4081,7 +4085,7 @@
         <v>5.6365740740740742E-3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
         <f>B9-B1</f>
@@ -4189,7 +4193,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4242,34 +4248,34 @@
         <v>1.1574074074074073E-3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <f>B2-B1</f>
         <v>1.1226851851851851E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <f>D2</f>
         <v>1.1226851851851851E-3</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f>I2-H2</f>
-        <v>2.2222222222222218E-3</v>
+        <v>3.0208333333333337E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L6" si="0">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
@@ -4285,27 +4291,27 @@
         <v>1.3078703703703703E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f>D5</f>
         <v>2.9745370370370368E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
         <f>I3-H3</f>
-        <v>1.1689814814814818E-3</v>
+        <v>3.703703703703703E-4</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M6" si="1">IF((I3-J3)&lt;K3,"","Поздно")</f>
@@ -4353,7 +4359,7 @@
         <v>3.0092592592592588E-3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <f>B5-B1</f>
@@ -4452,7 +4458,7 @@
         <v>4.0624999999999993E-3</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <f>B8-B1</f>
@@ -4562,7 +4568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4616,34 +4624,34 @@
         <v>3.1597222222222222E-3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <f>B2-B1</f>
         <v>3.0439814814814813E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <f>D2</f>
         <v>3.0439814814814813E-3</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K7" si="0">I2-H2</f>
-        <v>3.0092592592592584E-4</v>
+        <v>1.0995370370370373E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L7" si="1">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
@@ -4655,38 +4663,38 @@
         <v>3.6921296296296298E-3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <f>B3-B1</f>
         <v>3.5763888888888889E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f>D3</f>
         <v>3.5763888888888889E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>5.6712962962962967E-4</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f>-(I3-H3)</f>
+        <v>2.3148148148148182E-4</v>
+      </c>
+      <c r="L3" s="10">
+        <f>-(MINUTE(K3)*60+SECOND(K3))</f>
+        <v>-20</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M7" si="2">IF((I3-J3)&lt;K3,"","Поздно")</f>
-        <v/>
+        <v>Поздно</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4897,7 +4905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4954,15 +4964,15 @@
         <v>1.851851851851852E-4</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="L2" s="9"/>
     </row>
@@ -4975,27 +4985,27 @@
         <v>8.1018518518518505E-4</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f>D4</f>
         <v>1.1574074074074073E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
         <f>I3-H3</f>
-        <v>2.9861111111111113E-3</v>
+        <v>2.1874999999999998E-3</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" ref="L3:L6" si="0">MINUTE(K3)*60+SECOND(K3)</f>
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M6" si="1">IF((I3-J3)&lt;K3,"","Поздно")</f>
@@ -5007,7 +5017,7 @@
         <v>1.2384259259259258E-3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <f>B4-B1</f>
@@ -5237,7 +5247,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5292,27 +5302,27 @@
         <v>1.0069444444444444E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <f>D3</f>
         <v>1.8634259259259259E-3</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f>I2-H2</f>
-        <v>1.4814814814814812E-3</v>
+        <v>2.2800925925925927E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L6" si="0">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
@@ -5325,34 +5335,34 @@
         <v>2.0023148148148148E-3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
         <f>B3-B1</f>
         <v>1.8634259259259259E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f>D4</f>
         <v>2.8819444444444444E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
         <f>I3-H3</f>
-        <v>1.2615740740740742E-3</v>
+        <v>4.6296296296296276E-4</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M6" si="1">IF((I3-J3)&lt;K3,"","Поздно")</f>
@@ -5364,7 +5374,7 @@
         <v>3.0208333333333333E-3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <f>B4-B1</f>
@@ -5559,7 +5569,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5614,37 +5624,37 @@
         <v>3.1365740740740742E-3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <f>B2-B1</f>
         <v>3.1018518518518522E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <v>3.1018518518518522E-3</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f>I2-H2</f>
-        <v>2.4305555555555495E-4</v>
-      </c>
-      <c r="L2" s="10">
+        <v>1.0416666666666664E-3</v>
+      </c>
+      <c r="L2" s="7">
         <f t="shared" ref="L2:L6" si="0">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
-        <v>Поздно</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -5653,37 +5663,37 @@
         <v>3.1712962962962958E-3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <f>B3-B1</f>
         <v>3.1365740740740737E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <v>3.1365740740740737E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
         <f>I3-H3</f>
-        <v>1.0069444444444449E-3</v>
-      </c>
-      <c r="L3" s="7">
+        <v>2.0833333333333337E-4</v>
+      </c>
+      <c r="L3" s="10">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M6" si="1">IF((I3-J3)&lt;K3,"","Поздно")</f>
-        <v/>
+        <v>Поздно</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -5868,7 +5878,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5923,34 +5933,34 @@
         <v>1.5277777777777779E-3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
         <f>B2-B1</f>
         <v>1.3773148148148149E-3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2">
         <f>D2</f>
         <v>1.3773148148148149E-3</v>
       </c>
       <c r="I2" s="2">
-        <f>time!F3</f>
-        <v>3.3449074074074071E-3</v>
+        <f>time!F4</f>
+        <v>4.1435185185185186E-3</v>
       </c>
       <c r="J2" s="2">
-        <f>time!G3</f>
-        <v>3.1018518518518522E-3</v>
+        <f>time!G4</f>
+        <v>4.0162037037037033E-3</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K7" si="0">I2-H2</f>
-        <v>1.967592592592592E-3</v>
+        <v>2.7662037037037039E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ref="L2:L7" si="1">MINUTE(K2)*60+SECOND(K2)</f>
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="M2" t="str">
         <f>IF((I2-J2)&lt;K2,"","Поздно")</f>
@@ -5963,34 +5973,34 @@
         <v>3.1828703703703702E-3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <f>B3-B1</f>
         <v>3.0324074074074073E-3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H7" si="2">D3</f>
         <v>3.0324074074074073E-3</v>
       </c>
       <c r="I3" s="2">
-        <f>time!F4</f>
-        <v>4.1435185185185186E-3</v>
+        <f>time!F3</f>
+        <v>3.3449074074074071E-3</v>
       </c>
       <c r="J3" s="2">
-        <f>time!G4</f>
-        <v>4.0162037037037033E-3</v>
+        <f>time!G3</f>
+        <v>3.1018518518518522E-3</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
-        <v>1.1111111111111113E-3</v>
+        <v>3.1249999999999984E-4</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M7" si="3">IF((I3-J3)&lt;K3,"","Поздно")</f>
@@ -6159,7 +6169,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N11" s="36">
+      <c r="N11" s="34">
         <v>1</v>
       </c>
     </row>
